--- a/models/result/VQ-VAE-resnet18_data2_test1.xlsx
+++ b/models/result/VQ-VAE-resnet18_data2_test1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02231-LIYA-202308281005-R-D.bmp</t>
+          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.841271698474884</v>
+        <v>0.9996482133865356</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -474,11 +474,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01832-ZCYU-202212270938-双波段-R-D.bmp</t>
+          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991059899330139</v>
+        <v>0.9250336289405823</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -490,30 +490,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01528-CWME-2022082311001-双波段-R-D.bmp</t>
+          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03553178906440735</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00015-WZLI-202112031633-双波段10-L.bmp</t>
+          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9910549521446228</v>
+        <v>0.2758477628231049</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00105-FYMI-202202231106-单波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1812579333782196</v>
+        <v>0.9982001781463623</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -538,30 +538,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00683-HEJU-202205191508-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999434947967529</v>
+        <v>0.005573410075157881</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00050-WJJI-202204141653-双15-L.bmp</t>
+          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.1252910196781158</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -570,91 +570,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00266-YJSH-202203181503-双波段-L-D.bmp</t>
+          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8595623970031738</v>
+        <v>0.9984862208366394</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01805-CPYA-202210311446-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1516439169645309</v>
+        <v>0.8402680158615112</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KARZGLH1.bmp</t>
+          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9978780746459961</v>
+        <v>0.9996224641799927</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01753-LYXI-202210170909-双波段-R-D.bmp</t>
+          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9642325043678284</v>
+        <v>0.7065373063087463</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01358-LIHU-202207291045-双波段-L-D.bmp</t>
+          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9998828172683716</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S145-WJLI-202209161005-双波段15-L.bmp</t>
+          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0463242195546627</v>
+        <v>0.1524284929037094</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -666,11 +666,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02047-LYMI-202308081111-R-D.bmp</t>
+          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999980092048645</v>
+        <v>0.9876317381858826</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -682,11 +682,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00791-TAYI-202206011623-双波段-L-D.bmp</t>
+          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999828338623047</v>
+        <v>0.9868212342262268</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -698,30 +698,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00472-HSZH-202204180948-双波段-L-D.bmp</t>
+          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9975582361221313</v>
+        <v>0.9946436882019043</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S268-XYHU-202305031139-双波段10-L.bmp</t>
+          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01339913904666901</v>
+        <v>0.9904532432556152</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -730,27 +730,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01574-WHTI-202209090947-双波段-L-D.bmp</t>
+          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02742684446275234</v>
+        <v>0.9740623235702515</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01211-LLYU-202207141000-双波段-L-D.bmp</t>
+          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993782043457031</v>
+        <v>0.6024138331413269</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -762,59 +762,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KC9LKSH1.bmp</t>
+          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8884966373443604</v>
+        <v>0.4550766348838806</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S183-ZMZH-202210281538-双波段15-L.bmp</t>
+          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03618281334638596</v>
+        <v>0.00863850861787796</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02048-HSPI-202308081125-L-D.bmp</t>
+          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.9834911227226257</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00023-YYQI-202201041455-双波段10-L.bmp</t>
+          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2019606232643127</v>
+        <v>0.1534368842840195</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -826,30 +826,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02266-PELI-202307061421-R-D.bmp</t>
+          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9608194231987</v>
+        <v>0.9995850920677185</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01755-TLME-202210170935-双波段-R-D.bmp</t>
+          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004906918853521347</v>
+        <v>0.7781491875648499</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01477-LIYA-202208221420-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00141593674197793</v>
+        <v>0.6639661192893982</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -874,30 +874,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0189-LSLI-202203080859-双波段-R-D.bmp</t>
+          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04568098112940788</v>
+        <v>0.8041199445724487</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SCCDFY001-HCQI-202202212128-双波段15-R.bmp</t>
+          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0807674452662468</v>
+        <v>0.9877881407737732</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -906,43 +906,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01476-ZBLI-202208221359-双波段-L-D.bmp</t>
+          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02646679803729057</v>
+        <v>0.9999526739120483</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02215-LUTI-202308241442-R-D.bmp</t>
+          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4235607087612152</v>
+        <v>0.9999895095825195</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01759-XYQI-202210181039-双波段-L-D.bmp</t>
+          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003414662322029471</v>
+        <v>0.006420627702027559</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -954,30 +954,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KE3JGQ11.bmp</t>
+          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999986886978149</v>
+        <v>0.9722356796264648</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00271-LYLI-202203211008-双波段-L-D.bmp</t>
+          <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999892711639404</v>
+        <v>0.06947086006402969</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -986,59 +986,59 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00285-CYPI-202203221055-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9977053999900818</v>
+        <v>0.9999305009841919</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01988-ZSME-202303061440-双波段-R-D.bmp</t>
+          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5319566130638123</v>
+        <v>0.005223147571086884</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S278-MSNV-202305221622-双波段10-L.bmp</t>
+          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1189943253993988</v>
+        <v>0.6658341884613037</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>020-ZSSYX-Z2008-CHCH-202307180847-双波段-L-D.bmp</t>
+          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9997362494468689</v>
+        <v>0.9898264408111572</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01489-LLHO-202208241008-双波段-L-D.bmp</t>
+          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999996423721313</v>
+        <v>0.005964397918432951</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1066,11 +1066,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00339-HJYU-202203301011-双波段-R-D.bmp</t>
+          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01058516185730696</v>
+        <v>0.004371269606053829</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1082,46 +1082,46 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00362-HLLI-202204011511-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999818801879883</v>
+        <v>0.999458372592926</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S236-HYQU-202302271354-双波段15-R.bmp</t>
+          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9989737272262573</v>
+        <v>0.2155297547578812</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00140-YYFE-202210131626-双15-R.bmp</t>
+          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999566078186035</v>
+        <v>0.1089824587106705</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1130,11 +1130,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01016-LQTA-202206221648-双波段-L-D.bmp</t>
+          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9998235106468201</v>
+        <v>0.9774053692817688</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1146,11 +1146,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S220-GYZH-202301091446-双波段15-L.bmp</t>
+          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9996548891067505</v>
+        <v>0.6833227276802063</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1162,27 +1162,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00067-HJJU-202205311737-双15-L.bmp</t>
+          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999871253967285</v>
+        <v>0.9998040795326233</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01959-CHWE-202302271450-双波段-L-D.bmp</t>
+          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02745157293975353</v>
+        <v>0.0008614882244728506</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1194,30 +1194,30 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01935-XIJI-202302201440-双波段-R-D.bmp</t>
+          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.002758407965302467</v>
+        <v>0.9999717473983765</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01601-XYFE-202209160931-双波段-R-D.bmp</t>
+          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1575133800506592</v>
+        <v>0.9218533039093018</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1226,110 +1226,110 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0028-HLQI-202205261655-双波段-L-D.bmp</t>
+          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3876798152923584</v>
+        <v>0.9999923706054688</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00880-ZSWE-202206101549-双波段-R-D.bmp</t>
+          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001704923575744033</v>
+        <v>0.8661642670631409</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00597-CXYU-202205101438双波段-R-D.bmp</t>
+          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.7802569270133972</v>
+        <v>0.2560728490352631</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0011-CJXI-202203101045-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0.2382848113775253</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S267-LYQU-202304271118-双波段10-L.bmp</t>
+          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.2831816971302032</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KC7Q6A11.bmp</t>
+          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.999998927116394</v>
+        <v>0.490835428237915</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01752-MJYA-202210141502-双波段-R-D.bmp</t>
+          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0.0836310088634491</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1338,11 +1338,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01255-YHXI-202207200922-双波段-R-D.bmp</t>
+          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8973594903945923</v>
+        <v>0.9434144496917725</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1354,46 +1354,46 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01347-ZYQI-202207281536-双波段-L-D.bmp</t>
+          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.08741127699613571</v>
+        <v>0.1289994120597839</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01839-XYQU-202301030947-双波段-L-D.bmp</t>
+          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3580257594585419</v>
+        <v>0.839602530002594</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00003-KAJU-202203091500-双波段15-R.bmp</t>
+          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9986677169799805</v>
+        <v>0.07671285420656204</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00828-LMQI-202206071057-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007426203228533268</v>
+        <v>0.00665790680795908</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1418,62 +1418,62 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02011-LYXI-202307191636-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.07551997900009155</v>
+        <v>0.8964877724647522</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00800-THZH-202206021001-双波段-R-D.bmp</t>
+          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2836231589317322</v>
+        <v>0.9705328941345215</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01193-DXHU-202207121650-双波段-L-D.bmp</t>
+          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9999809265136719</v>
+        <v>0.8458660840988159</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01470-YMZH-202208220850-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0.09674564003944397</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1482,94 +1482,94 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00277-LBCH-202203211514-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1012283191084862</v>
+        <v>0.3644806146621704</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00104-ZXHO-202204111639-双波段15-R.bmp</t>
+          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002198406495153904</v>
+        <v>0.04245635867118835</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01045-WAXI-202206241112-双波段-L-D.bmp</t>
+          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02939905226230621</v>
+        <v>0.9999246597290039</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00670-LJFE-202205181531-双波段-L-D.bmp</t>
+          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.8535625338554382</v>
+        <v>0.009087342768907547</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00907-PJQI-202206141509-双波段-R-D.bmp</t>
+          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5237987637519836</v>
+        <v>0.1779730468988419</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00086-WYQI-202207271340-双15-L.bmp</t>
+          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.999534010887146</v>
+        <v>0.3452783524990082</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1578,27 +1578,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01595-JJYO-202209150949-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0007872776477597654</v>
+        <v>0.02216922491788864</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00704-YAMI-202205231445-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9977120161056519</v>
+        <v>0.8352087736129761</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1610,11 +1610,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00055-FGME-202204211418-双15-R.bmp</t>
+          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9998836517333984</v>
+        <v>0.8501827120780945</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1626,59 +1626,59 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ZJSYF00003-MYXI-202110121352-双波段-L.bmp</t>
+          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.005613021552562714</v>
+        <v>0.9939302206039429</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02063-YCYU-202308110831-L-D.bmp</t>
+          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9998544454574585</v>
+        <v>0.1398611217737198</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KCHPGTH1.bmp</t>
+          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9994100332260132</v>
+        <v>0.9990367889404297</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KBBNR6H1.bmp</t>
+          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.9999991655349731</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1690,14 +1690,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00702-LJYI-202205231059-双波段-R-D.bmp</t>
+          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.002170122228562832</v>
+        <v>0.6064034700393677</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1706,27 +1706,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01651-LYME-202209260828-双波段-R-D.bmp</t>
+          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01799646764993668</v>
+        <v>0.01628467813134193</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S274-WGWE-202305181630-双波段10-L.bmp</t>
+          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.6341949105262756</v>
+        <v>0.9943859577178955</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1738,27 +1738,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01868-ZXTI-202301291026-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4885648190975189</v>
+        <v>0.01619258336722851</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02268-DYFE-202307101521-R-D.bmp</t>
+          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.636263370513916</v>
+        <v>0.9999983310699463</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1770,11 +1770,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01984-LYPI-202303060859-双波段-L-D.bmp</t>
+          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.00167542474810034</v>
+        <v>0.2955700159072876</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1786,46 +1786,46 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S233-WARO-202302221506-双波段15-L.bmp</t>
+          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9997559189796448</v>
+        <v>0.9982512593269348</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S200-LSME-202211091349-双波段15-R.bmp</t>
+          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9975894689559937</v>
+        <v>0.9959772229194641</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00383-QLXU-202204061009-双波段-R-D.bmp</t>
+          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.004580605309456587</v>
+        <v>0.7993165850639343</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1834,11 +1834,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01918-ZHYI-202302151006-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.005432610865682364</v>
+        <v>0.3222233355045319</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1850,46 +1850,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KEN2BF11.bmp</t>
+          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.5493692755699158</v>
+        <v>0.04346699640154839</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02041-LMHU-202308041042-L-D.bmp</t>
+          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.009249467402696609</v>
+        <v>0.8851589560508728</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S195-LLFE-202211031657-双波段15-L.bmp</t>
+          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8647798299789429</v>
+        <v>0.02004296332597733</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1898,14 +1898,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S331-YIME-202308111356-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9522123336791992</v>
+        <v>0.3913594484329224</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1914,14 +1914,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00639-NHYA-202205160945-双波段-L-D.bmp</t>
+          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8454918265342712</v>
+        <v>0.0197733249515295</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1930,46 +1930,46 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02101-LXHU-202308211021-R-D.bmp</t>
+          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.946965754032135</v>
+        <v>0.9984985589981079</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01862-MJAI-202301171023-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9991538524627686</v>
+        <v>0.9988400340080261</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00465-HMYI-202204150911-双波段-L-D.bmp</t>
+          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9828976988792419</v>
+        <v>0.03342019394040108</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1978,62 +1978,62 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00726-SULI-202205250930-双波段-L-D.bmp</t>
+          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6882658004760742</v>
+        <v>0.9960110187530518</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00325-CDXI-202203281442-双波段-R-D.bmp</t>
+          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9828588366508484</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S159-CXHU-202209281602-双波段15-L.bmp</t>
+          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.003316988004371524</v>
+        <v>0.3842910528182983</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0010-LIHU-202203080957-双波段-L-D.bmp</t>
+          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999903440475464</v>
+        <v>0.03269876912236214</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2042,30 +2042,30 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00838-JXHO-202206080933-双波段-L-D.bmp</t>
+          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3189563155174255</v>
+        <v>0.588360607624054</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S285-HXAI-202305291513-双波段10-L.bmp</t>
+          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2321936786174774</v>
+        <v>0.6001756191253662</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2074,11 +2074,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02009-ZWZH-202307190908-双波段-L-D.bmp</t>
+          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9761903882026672</v>
+        <v>0.6164546608924866</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -2090,11 +2090,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02076-TSJU-202308161457-R-D.bmp</t>
+          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.008719503879547119</v>
+        <v>0.007036153692752123</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01394-WFHU-202208041036-双波段-R-D.bmp</t>
+          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.005341092124581337</v>
+        <v>0.9909378290176392</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2122,43 +2122,43 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01841-LXBI-202301050823-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999798536300659</v>
+        <v>0.34296515583992</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00369-WXYA-202204021102-双波段-R-D.bmp</t>
+          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.999955415725708</v>
+        <v>0.07183428853750229</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00840-HFLA-202206081000-双波段-L-D.bmp</t>
+          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9822540879249573</v>
+        <v>0.7714602947235107</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -2170,78 +2170,78 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02113-LYME-202308221618-R-D.bmp</t>
+          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9996746778488159</v>
+        <v>0.6228306293487549</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02229-LHSH-202308260948-R-D.bmp</t>
+          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2218794822692871</v>
+        <v>0.1781464517116547</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01491-JMTA-2022082401056-双波段-L-D.bmp</t>
+          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9999750852584839</v>
+        <v>0.2104212194681168</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00659-CYWA-202205171151-双波段-R-D.bmp</t>
+          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9999071359634399</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0053-LCHO-202204240913-双波段-R-D.bmp</t>
+          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0.4385983645915985</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2250,11 +2250,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00380-YYPI-202204060852-双波段-R-D.bmp</t>
+          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.004064485896378756</v>
+        <v>0.07326553016901016</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2266,75 +2266,75 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01368-CGPI-202207291532-双波段-R-D.bmp</t>
+          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9999997615814209</v>
+        <v>0.9999984502792358</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0233-LMYU-202203150916-双波段-L-D.bmp</t>
+          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.00659280689433217</v>
+        <v>0.00963959563523531</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00307-SMXI-202203241515-双波段-R-D.bmp</t>
+          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.7293882369995117</v>
+        <v>0.9503222107887268</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01419-WLXI-2022081108-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.876160740852356</v>
+        <v>0.2209916710853577</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01238-CAHO-202207181159-双波段-L-D.bmp</t>
+          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.994199275970459</v>
+        <v>0.9968340992927551</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -2346,14 +2346,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00031-LHJU-202201201328-双波段10-L.bmp</t>
+          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.5131548047065735</v>
+        <v>0.03471563756465912</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2362,14 +2362,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01397-MAHU-202208041451-双波段-R-D.bmp</t>
+          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.04287056252360344</v>
+        <v>0.9351514577865601</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2378,11 +2378,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00372-LJHU-202204021139-双波段-L-D.bmp</t>
+          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.102243147790432</v>
+        <v>0.001658321591094136</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2394,30 +2394,30 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01885-ZCXI-202302030824-双波段-R-D.bmp</t>
+          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9999384880065918</v>
+        <v>0.9997308850288391</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01951-FHME-202302241542-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.8835915923118591</v>
+        <v>0.002935415133833885</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2426,27 +2426,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00052-THJU-202204191527-双15-L.bmp</t>
+          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1864583641290665</v>
+        <v>0.4347030520439148</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00017-LUQI-202112071326-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.8693264126777649</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2458,11 +2458,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00416-CHQI-202204121102-双波段-R-D.bmp</t>
+          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.003827662207186222</v>
+        <v>0.406667560338974</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2474,11 +2474,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S271-ZFCH-202305121138-双波段10-L.bmp</t>
+          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9977496266365051</v>
+        <v>0.9151582717895508</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2490,14 +2490,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02078-ZXQI-202308161635-L-D.bmp</t>
+          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999854564666748</v>
+        <v>0.07626815140247345</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2506,46 +2506,46 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01548-TYXU-2022091440-双波段-R-D.bmp</t>
+          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.4924528300762177</v>
+        <v>0.3466635644435883</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01625-ZSNA-202209210948-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.03228773549199104</v>
+        <v>0.915098249912262</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02060-WMZH-202308101059-L-D.bmp</t>
+          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0286865122616291</v>
+        <v>0.9999771118164062</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2554,30 +2554,30 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02085-TGRO-202307071703-L-D.bmp</t>
+          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.4848700165748596</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00316-CCZH-202203251135-双波段-L-D.bmp</t>
+          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.04001408815383911</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2586,11 +2586,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00614-WUTA-202205120909-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9999240636825562</v>
+        <v>0.9999886751174927</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2602,14 +2602,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01978-LJMI-202303030903-双波段-L-D.bmp</t>
+          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.00311580952256918</v>
+        <v>0.9661397337913513</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2618,11 +2618,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01952-PYRO-202302241626-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.7689467668533325</v>
+        <v>0.999991774559021</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2634,27 +2634,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01889-ZPFA-202302061448-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7516880035400391</v>
+        <v>0.4656201899051666</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02065-WWFA-202308111443-L-D.bmp</t>
+          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.08559519052505493</v>
+        <v>0.008911400102078915</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2666,43 +2666,43 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00142-YALI-202210181154-双15-L.bmp</t>
+          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1163335070014</v>
+        <v>0.9998251795768738</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02248-WZYI-202308301022-R-D.bmp</t>
+          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9663794040679932</v>
+        <v>0.0246551651507616</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S335-TSQI-202308151205-双波段10-R.bmp</t>
+          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.01123634167015553</v>
+        <v>0.02457095682621002</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2714,11 +2714,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01493-XFZH-2022082401442-双波段-R-D.bmp</t>
+          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9999914169311523</v>
+        <v>0.5745906233787537</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2730,14 +2730,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01711-WZHU-202210100904-双波段-L-D.bmp</t>
+          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.04925607889890671</v>
+        <v>0.9428977966308594</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2746,11 +2746,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S289-LYFE-202306051510-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1769697517156601</v>
+        <v>0.001368050463497639</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2762,75 +2762,75 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01306-XUYE-2022072251110-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.8714413046836853</v>
+        <v>0.9946087598800659</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01801-TXLI-202210310846-双波段-L-D.bmp</t>
+          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9208521842956543</v>
+        <v>0.2561475038528442</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02213-HGZH-202308241042-R-D.bmp</t>
+          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9992840886116028</v>
+        <v>0.9997592568397522</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01510-JHYI-2022082290821-双波段-R-D.bmp</t>
+          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.4613332450389862</v>
+        <v>0.09731968492269516</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S192-WYJI-202211031339-双波段15-R.bmp</t>
+          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9765709638595581</v>
+        <v>0.9975764155387878</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2842,11 +2842,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01145-ZQLI-202207070850-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9902153015136719</v>
+        <v>0.9929006099700928</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2858,14 +2858,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01454-SYPI-202208170919-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.002868759445846081</v>
+        <v>0.9905486702919006</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2874,30 +2874,30 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S340-YEFE-202308211337-双波段10-L.bmp</t>
+          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.861492931842804</v>
+        <v>0.002932887291535735</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01494-LSQI-2022082401516-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1805170476436615</v>
+        <v>0.9997881054878235</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2906,11 +2906,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01547-LHJU-2022091014-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.002965279389172792</v>
+        <v>0.01710917428135872</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2922,14 +2922,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00133-ZWJU-202204151546-双波段15-L.bmp</t>
+          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.6199698448181152</v>
+        <v>0.3806748390197754</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2938,46 +2938,46 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01550-ZYLI-202209051502-双波段-L-D.bmp</t>
+          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9998296499252319</v>
+        <v>0.792319118976593</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01650-MUJU-202209260811-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.8129538297653198</v>
+        <v>0.9790651798248291</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01463-TQLI-202208181029-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.7627565860748291</v>
+        <v>0.09187043458223343</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2986,94 +2986,94 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02045-YQQI-202308071001-L-D.bmp</t>
+          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9999982118606567</v>
+        <v>0.9996169805526733</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02090-HXME-202304270927-R-D.bmp</t>
+          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.9912249445915222</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00030-YAQI-202201171726-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.999998927116394</v>
+        <v>0.1049395650625229</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00564-CYSH-202205060933双波段-R-D.bmp</t>
+          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9999959468841553</v>
+        <v>0.9398163557052612</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S167-WRLI-202210171534-双波段15-L.bmp</t>
+          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0009172780555672944</v>
+        <v>0.8912196159362793</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S235-LCYU-202302271035-双波段15-L.bmp</t>
+          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9780867695808411</v>
+        <v>0.08115986734628677</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3082,14 +3082,14 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00091-CFJU-202208091602-双15-L.bmp</t>
+          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.258728563785553</v>
+        <v>0.9974950551986694</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3098,30 +3098,30 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00010-WYHU-202111221638-10-L.bmp</t>
+          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9983264803886414</v>
+        <v>0.2715358436107635</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00139-XUJI-202210111757-双15-L.bmp</t>
+          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01884991303086281</v>
+        <v>0.9996963739395142</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3130,14 +3130,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00326-ZQYU-202203281013-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9667606353759766</v>
+        <v>0.247650995850563</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3146,46 +3146,46 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01810-ZQYU-202211011519-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6611478328704834</v>
+        <v>0.9845389127731323</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00473-WSLI-202204181001-双波段-L-D.bmp</t>
+          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9999997615814209</v>
+        <v>0.3830540478229523</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S319-SZYU-202307241342-双波段10-L.bmp</t>
+          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.001094107166863978</v>
+        <v>0.9999682903289795</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S162-YAME-202210101608-双波段15-R.bmp</t>
+          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9990444779396057</v>
+        <v>0.04105573892593384</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3210,62 +3210,62 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00165-JQPI-202303201046-双15-L.bmp</t>
+          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.974518895149231</v>
+        <v>0.9999134540557861</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02023-YWZH-202307261536-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.9999997615814209</v>
+        <v>0.9997014403343201</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00277-LBCH-202203211526-双波段-R-D.bmp</t>
+          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.6884856224060059</v>
+        <v>0.9141967296600342</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02269-FYWE-202307101506-L-D.bmp</t>
+          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9887873530387878</v>
+        <v>0.008499038405716419</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -3274,11 +3274,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00034-LXQI-202203281612-双波段15-L.bmp</t>
+          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.8499161005020142</v>
+        <v>0.8189877867698669</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -3290,11 +3290,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00163-CCYI-202303071752-双15-L.bmp</t>
+          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.02264493517577648</v>
+        <v>0.01191547140479088</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -3306,46 +3306,46 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02205-ZJXI-202306141326-R-D.bmp</t>
+          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0.1763462275266647</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00708-LYYI-202205231620-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.9985203146934509</v>
+        <v>0.7367500066757202</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00109-THPI-202208301728-双15-R.bmp</t>
+          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.999997615814209</v>
+        <v>0.03122648224234581</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -3354,30 +3354,30 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01916-LLYI-202302141442-双波段-R-D.bmp</t>
+          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.02910347282886505</v>
+        <v>0.974022388458252</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01948-LUPI-202302240928-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9999971389770508</v>
+        <v>0.3553178310394287</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3386,27 +3386,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0023-CWWA-202203220828-双波段-L-D.bmp</t>
+          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.04155459254980087</v>
+        <v>0.03266793489456177</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01517-CHYU-2022082291048-双波段-L-D.bmp</t>
+          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9997536540031433</v>
+        <v>0.9999313354492188</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -3418,78 +3418,78 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
+          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.6651575565338135</v>
+        <v>0.5809643268585205</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KBRMXM11.bmp</t>
+          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.02410564757883549</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02243-ZJFE-202305151106-R-D.bmp</t>
+          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9999839067459106</v>
+        <v>0.9617617130279541</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02038-PXPI-202308031449-L-D.bmp</t>
+          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.03234878182411194</v>
+        <v>0.001727631315588951</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S271-ZFCH-202305121144-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9075598120689392</v>
+        <v>0.2816732823848724</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -3498,27 +3498,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01532-CWSU-202209010927-双波段-R-D.bmp</t>
+          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001520457793958485</v>
+        <v>0.7895370721817017</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01343-LYKU-202207281424-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.002927582245320082</v>
+        <v>0.02762740105390549</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -3530,78 +3530,78 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02070-LSMA-202308141534-R-D.bmp</t>
+          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.5066527724266052</v>
+        <v>0.3666682243347168</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00377-LLJU-202204021536-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001638573012314737</v>
+        <v>0.9680991172790527</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02110-CAHU-202308220916-L-D.bmp</t>
+          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9751048684120178</v>
+        <v>0.9904109239578247</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KC88NR11.bmp</t>
+          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.008005962707102299</v>
+        <v>0.1428799331188202</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0236-ZJQI-202203151008-双波段-R-D.bmp</t>
+          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.9993607401847839</v>
+        <v>0.01903687417507172</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -3610,14 +3610,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0027-HSYI-202206020930-双波段-L-D.bmp</t>
+          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0005745982634834945</v>
+        <v>0.9001657962799072</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3626,27 +3626,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S163-WLDI-202210110941-双波段15-L.bmp</t>
+          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.9999939203262329</v>
+        <v>0.9958727955818176</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00900-PCQI-202206140913-双波段-L-D.bmp</t>
+          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.9703720211982727</v>
+        <v>0.5321993231773376</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3658,14 +3658,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01240-NSLI-202207181454-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7326709628105164</v>
+        <v>0.006084139458835125</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -3674,27 +3674,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00317-TMZH-202203251522-双波段-R-D.bmp</t>
+          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.9954143762588501</v>
+        <v>0.9999639987945557</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S173-ZHYU-202210200945-双波段15-L.bmp</t>
+          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.884659469127655</v>
+        <v>0.9950194358825684</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3706,14 +3706,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00822-LWFA-202206070906-双波段-R-D.bmp</t>
+          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.001275854068808258</v>
+        <v>0.9094554781913757</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -3722,91 +3722,91 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00065-YLLI-202202171732-单波段-R-D.bmp</t>
+          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.007709379307925701</v>
+        <v>0.7213871479034424</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00078-ZJZH-202207051201-双15-L.bmp</t>
+          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.009245465509593487</v>
+        <v>0.2972034215927124</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01997-LLZH-202303131120-双波段-R-D.bmp</t>
+          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.1682658046483994</v>
+        <v>0.6674355864524841</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S355-RSQI-202309041347-双波段10-R.bmp</t>
+          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.001150872674770653</v>
+        <v>0.4967533349990845</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02237-HLPI-20230829083946-R-D.bmp</t>
+          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9539031386375427</v>
+        <v>0.8559942841529846</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01252-XXRO-202207191542-双波段-R-D.bmp</t>
+          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5775418281555176</v>
+        <v>0.9894575476646423</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3818,11 +3818,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S207-LLLI-202211161346-双波段15-L.bmp</t>
+          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.02253367006778717</v>
+        <v>0.0724383071064949</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3834,30 +3834,30 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S234-XYDI-202302231001-双波段15-L.bmp</t>
+          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.7506626844406128</v>
+        <v>0.145351767539978</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02036-CGHU-202308011658-R-D.bmp</t>
+          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.1491778194904327</v>
+        <v>0.9891960620880127</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -3866,14 +3866,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
+          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.0568573921918869</v>
+        <v>0.9998112320899963</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -3882,43 +3882,43 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01520-LSME-2022082300856-双波段-R-D.bmp</t>
+          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.7164946794509888</v>
+        <v>0.9965417981147766</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S286-RAJV-202306011236-双波段10-R.bmp</t>
+          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.9941199421882629</v>
+        <v>0.1533741503953934</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01970-LYPI-202303011000-双波段-R-D.bmp</t>
+          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.05193166434764862</v>
+        <v>0.1899773925542831</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3930,11 +3930,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01564-ZWFA-202209080854-双波段-R-D.bmp</t>
+          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0009207219118252397</v>
+        <v>0.01242872327566147</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3946,14 +3946,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00290-XIXI-202203221604-双波段-L-D.bmp</t>
+          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.9999984502792358</v>
+        <v>0.01225360855460167</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -3962,14 +3962,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00066-ZHYA-202205311430-双15-R.bmp</t>
+          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.9735456705093384</v>
+        <v>0.3572069406509399</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -3978,14 +3978,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00075-FLLI-202206271103-双15-L.bmp</t>
+          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.9999701976776123</v>
+        <v>0.1788111925125122</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
         <v>1</v>
@@ -3994,11 +3994,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01957-ZXMI-202302271010-双波段-L-D.bmp</t>
+          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.9338381290435791</v>
+        <v>0.7913072109222412</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -4010,14 +4010,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02259-WLYA-202308300920-R-D.bmp</t>
+          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.03791942074894905</v>
+        <v>0.9996711015701294</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -4026,14 +4026,14 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00143-ZHQL-202208221103-双波段15-R.bmp</t>
+          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.8805566430091858</v>
+        <v>0.4386281967163086</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -4042,11 +4042,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00074-CHYA-202206270933-双15-L.bmp</t>
+          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.9864324927330017</v>
+        <v>0.5184699892997742</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -4058,62 +4058,62 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00754-HPYU-2022052301006-双波段-L-D.bmp</t>
+          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.005129049997776747</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00517-HFXI-202204261039-双波段-L-D.bmp</t>
+          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.004123697988688946</v>
+        <v>0.4293560683727264</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02108-LRHA-202304210949-L-D.bmp</t>
+          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.9999624490737915</v>
+        <v>0.06043960526585579</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00292-LMZH-202203230820-双波段-L-D.bmp</t>
+          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9039803147315979</v>
+        <v>0.1984404176473618</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -4122,11 +4122,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S356-ZLFE-202309051318-双波段10-L.bmp</t>
+          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.03495985269546509</v>
+        <v>0.01255211699754</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -4138,30 +4138,30 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02219-JJMI-202308241942-R-D.bmp</t>
+          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.9972339272499084</v>
+        <v>0.8355651497840881</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00054-LQRO-202202171440-单波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.5196446776390076</v>
+        <v>0.3953651487827301</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -4170,14 +4170,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00348-FHLI-202203310956-双波段-R-D.bmp</t>
+          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.007582241669297218</v>
+        <v>0.6139576435089111</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -4186,62 +4186,62 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01863-LRJU-202301171519-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7722582817077637</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00072-WHXI-202202181011-单波段-R-D.bmp</t>
+          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.001814329996705055</v>
+        <v>0.9999964237213135</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S254-LQXI-202304101527-双波段15-L.bmp</t>
+          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.8995696902275085</v>
+        <v>0.7783186435699463</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00990-YAXI-202206211131-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9999896287918091</v>
+        <v>0.3467499613761902</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -4250,27 +4250,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00158-LLJU-202301311648-双15-R.bmp</t>
+          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.6705132722854614</v>
+        <v>0.5545209050178528</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02114-XYQI-202305041852-R-D.bmp</t>
+          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.9999982118606567</v>
+        <v>0.9072909355163574</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -4282,14 +4282,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S296-LGYI-202306260959-双波段10-R.bmp</t>
+          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.4198793470859528</v>
+        <v>0.9984814524650574</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -4298,11 +4298,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01474-CCRU-202208221046-双波段-R-D.bmp</t>
+          <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.002567610470578074</v>
+        <v>0.01658998802304268</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -4314,14 +4314,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01416-LXXFE-202208081558-双波段-L-D.bmp</t>
+          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.9979382157325745</v>
+        <v>0.05174968019127846</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -4330,30 +4330,30 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0056-CFYU-202204271613-双波段-R-D.bmp</t>
+          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.1592841744422913</v>
+        <v>0.999998927116394</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00866-LXJU-202206100836-双波段-L-D.bmp</t>
+          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.03779856860637665</v>
+        <v>0.9918832778930664</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -4362,46 +4362,46 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00557-WHTA-202205051549双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.9950182437896729</v>
+        <v>0.8705646991729736</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01062-NWLI-202206290931-双波段-R-D.bmp</t>
+          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.9990923404693604</v>
+        <v>0.01931845955550671</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01592-WXDA-202209141049-双波段-L-D.bmp</t>
+          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.06760470569133759</v>
+        <v>0.9998615980148315</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -4410,11 +4410,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01728-CSME-202210120944-双波段-R-D.bmp</t>
+          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.03750266507267952</v>
+        <v>0.1089363172650337</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01708-YXJI-202210091522-双波段-L-D.bmp</t>
+          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.9998600482940674</v>
+        <v>0.001323284581303596</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -4442,30 +4442,30 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00012-CYLA-202111251126-双波段10-R.bmp</t>
+          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.6957875490188599</v>
+        <v>0.984255850315094</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01566-ZSFE-202209080916-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.04554211720824242</v>
+        <v>0.788934051990509</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -4474,91 +4474,91 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02217-CMLI-202308241645-L-D.bmp</t>
+          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.08757033944129944</v>
+        <v>0.575249195098877</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00641-LSPI-202205161026-双波段-L-D.bmp</t>
+          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.9998268485069275</v>
+        <v>0.002199514303356409</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01879-CHYI-202302011434-双波段-R-D.bmp</t>
+          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.9690936207771301</v>
+        <v>0.999995231628418</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01818-CMFA-202212090918-双波段-L-D.bmp</t>
+          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.001201246865093708</v>
+        <v>0.997479259967804</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01780-LYXI-202210241002-双波段-R-D.bmp</t>
+          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.6543813943862915</v>
+        <v>0.3757898509502411</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01710-LSME-202210100854-双波段-L-D.bmp</t>
+          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.9942114949226379</v>
+        <v>0.9997226595878601</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -4570,14 +4570,14 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01603-XUTA-202209161009-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.02839843928813934</v>
+        <v>0.8851986527442932</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02209-CJLI-202308232112-L-D.bmp</t>
+          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.9996335506439209</v>
+        <v>0.01215245760977268</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -4602,14 +4602,14 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>KABM66H1.bmp</t>
+          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.999967098236084</v>
+        <v>0.07264971733093262</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>1</v>
@@ -4618,27 +4618,27 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S155-ZYLA-202209261635-双波段15-L.bmp</t>
+          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.216700404882431</v>
+        <v>0.9167123436927795</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01492-CAQU-2022082401113-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.9903703331947327</v>
+        <v>0.5910991430282593</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -4650,27 +4650,27 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00578-ZAHO-202205070854双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.9999816417694092</v>
+        <v>0.6179850101470947</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02117-LXMI-202307111026-L-D.bmp</t>
+          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.02845766395330429</v>
+        <v>0.003674474311992526</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -4682,30 +4682,30 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00172-XIYI-202303241831-双15-L.bmp</t>
+          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.9999933242797852</v>
+        <v>0.3523903787136078</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01029-WXYI-202206231120-双波段-R-D.bmp</t>
+          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.1142950356006622</v>
+        <v>0.8637580871582031</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -4714,11 +4714,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00102-QYDA-202208231126-双15-R.bmp</t>
+          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0.996977686882019</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -4730,11 +4730,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01593-XYDA-202209141103-双波段-L-D.bmp</t>
+          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.01057541277259588</v>
+        <v>0.05627601221203804</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -4746,27 +4746,27 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00742-CYXI-202205261018-双波段-L-D.bmp</t>
+          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0.999538779258728</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00142-YJYI-202208121432-双波段15-R.bmp</t>
+          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.3718962371349335</v>
+        <v>0.1595592498779297</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -4778,14 +4778,14 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S336-HFHU-202308151637-双波段10-L.bmp</t>
+          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.9985193610191345</v>
+        <v>0.3922678232192993</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00141-ZXMI-202210171456-双15-R.bmp</t>
+          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.04366588592529297</v>
+        <v>0.9999746084213257</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -4810,14 +4810,14 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02236-YBXI-202308080839-R-D.bmp</t>
+          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.03737139329314232</v>
+        <v>0.8099766969680786</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -4826,11 +4826,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01194-YFQI-202207130848-双波段-L-D.bmp</t>
+          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.6879292130470276</v>
+        <v>0.9999698400497437</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -4842,416 +4842,16 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00281-CXPI-202203211705-双波段-R-D.bmp</t>
+          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.002061533508822322</v>
+        <v>0.004202285315841436</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01903-HBJU-202302100851-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0.0055905906483531</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01437-QCHU-202208111057-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>0.6101623177528381</v>
-      </c>
-      <c r="C278" t="n">
-        <v>1</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>0571-ZKYZL-S206-XUJI-202211161000-双波段15-R.bmp</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0.041338961571455</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01846-LMFA-202301061521-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>1</v>
-      </c>
-      <c r="C280" t="n">
-        <v>1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>0571-ZHJSH-00084-XURU-202207191628-双15-L.bmp</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>0.9958428740501404</v>
-      </c>
-      <c r="C281" t="n">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01388-PJYI-202208021513-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0.01284442748874426</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00646-OUJU-202205161503-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0.9998674392700195</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00494-CQHU-202204201613-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0.8717203140258789</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01695-LYME-202210081046-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0.999737560749054</v>
-      </c>
-      <c r="C285" t="n">
-        <v>1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00756-ZHNE-2022052301036-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0.03242943435907364</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01875-WXLI-202301310913-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>1</v>
-      </c>
-      <c r="C287" t="n">
-        <v>1</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01422-ZMFE-2022081558-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0.3351009786128998</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01180-QJME-202207120933-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>0.3715176284313202</v>
-      </c>
-      <c r="C289" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>0571-ZKYZL-S165-LYHU-202210131357-双波段15-R.bmp</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0.003039331641048193</v>
-      </c>
-      <c r="C290" t="n">
-        <v>0</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>0571-ZHJSH-00145-LXYI-202210261425-双15-R.bmp</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>1</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00514-OYXS-202204251133-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>0.0004600358952302486</v>
-      </c>
-      <c r="C292" t="n">
-        <v>0</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-02249-LZDA-202308301052-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0.9931657910346985</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00661-XILI-202205171525-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>0.5572174191474915</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-02263-GUHO-202308310906-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0.005148153752088547</v>
-      </c>
-      <c r="C295" t="n">
-        <v>0</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00053-JMXI-202202171201-单波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0.01215852703899145</v>
-      </c>
-      <c r="C296" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01667-XZHA-202209270955-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>0.9823619723320007</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-00364-WZHU-202204020950-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0.0400349497795105</v>
-      </c>
-      <c r="C298" t="n">
-        <v>0</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-X0018-FYME-202203171506-双波段-L-D.bmp</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0.00185019348282367</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01797-GZJU-202210271452-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0.002098345663398504</v>
-      </c>
-      <c r="C300" t="n">
-        <v>0</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>020-ZSSYX-01538-LJWE-202209020941-双波段-R-D.bmp</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0.9469265937805176</v>
-      </c>
-      <c r="C301" t="n">
-        <v>1</v>
-      </c>
-      <c r="D301" t="n">
         <v>0</v>
       </c>
     </row>
